--- a/Config.xlsx
+++ b/Config.xlsx
@@ -10,15 +10,24 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A327758E-865D-481C-B321-6BB0CD3E96C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F41D17-9DB7-4E8F-9610-6951A9826141}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -363,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://continental-my.sharepoint.com/personal/uia51338_contiwan_com/Documents/Learning/Python/QL_Graph_Builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{A327758E-865D-481C-B321-6BB0CD3E96C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56F41D17-9DB7-4E8F-9610-6951A9826141}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{A327758E-865D-481C-B321-6BB0CD3E96C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{441FA6FC-5AF6-42A5-9E81-B2F294BFE9A7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
